--- a/data/trans_dic/P70C3_R_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P70C3_R_2023-Clase-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.04829797418324235</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.04115209444454407</v>
+        <v>0.04115209444454408</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.04492856696852453</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02861028708709951</v>
+        <v>0.02743304485083015</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02682243647142716</v>
+        <v>0.02625771743996631</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03162481769287832</v>
+        <v>0.03119919337359183</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07843294423983102</v>
+        <v>0.07846635059929633</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06218884255499344</v>
+        <v>0.06436599778182979</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06343394402122379</v>
+        <v>0.06249018425349148</v>
       </c>
     </row>
     <row r="7">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.03636121075258836</v>
+        <v>0.03636121075258837</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.05667737736040415</v>
+        <v>0.05667737736040414</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.04572006554649925</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01625497683262105</v>
+        <v>0.01626334792283412</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03429571852079751</v>
+        <v>0.03550224079310819</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03084386375680792</v>
+        <v>0.03134207281037284</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06889785685975132</v>
+        <v>0.06791179989940054</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08084317365767014</v>
+        <v>0.08597061682154171</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06699280173627256</v>
+        <v>0.06713389805748493</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.09905305192253983</v>
+        <v>0.09905305192253984</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.09405058903586115</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06425668059191257</v>
+        <v>0.06233394039892397</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04042216950901352</v>
+        <v>0.03863425019127646</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06801348710068193</v>
+        <v>0.06714413710437708</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1529424880759102</v>
+        <v>0.1532909231082615</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2273449873830015</v>
+        <v>0.2182652400664665</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1472460759372494</v>
+        <v>0.1452935814510364</v>
       </c>
     </row>
     <row r="13">
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.06585550546431708</v>
+        <v>0.06585550546431707</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.05285428569231212</v>
+        <v>0.05285428569231211</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.06020929377831186</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04513545727228842</v>
+        <v>0.04719989312345562</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03640896778931217</v>
+        <v>0.0359565625077654</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04713147949370494</v>
+        <v>0.04653683661352861</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09489933955034523</v>
+        <v>0.09162190630372979</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07506306532161838</v>
+        <v>0.07274211399190642</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07644524195935389</v>
+        <v>0.07663748188469965</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.008921195519489311</v>
+        <v>0.00842735600703802</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03822610295430452</v>
+        <v>0.03858335057394112</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0267532642400325</v>
+        <v>0.02648711410773191</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04135185482865592</v>
+        <v>0.04038513823156718</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0810360292306716</v>
+        <v>0.08334763543449043</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05420153693049252</v>
+        <v>0.05553147945921488</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.04434141552548643</v>
+        <v>0.04496900233105807</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04401147303667746</v>
+        <v>0.04405516229586354</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.04733712004786113</v>
+        <v>0.04757582947320232</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.06861042906699652</v>
+        <v>0.06965377061424065</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.06506653445832418</v>
+        <v>0.06655849427310861</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.06334391516735491</v>
+        <v>0.06393956591293373</v>
       </c>
     </row>
     <row r="22">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>10691</v>
+        <v>10251</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>8942</v>
+        <v>8754</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>22360</v>
+        <v>22059</v>
       </c>
     </row>
     <row r="7">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>29307</v>
+        <v>29320</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>20733</v>
+        <v>21459</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>44851</v>
+        <v>44183</v>
       </c>
     </row>
     <row r="8">
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>5158</v>
+        <v>5161</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>9295</v>
+        <v>9622</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>18147</v>
+        <v>18440</v>
       </c>
     </row>
     <row r="11">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>21863</v>
+        <v>21550</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>21911</v>
+        <v>23301</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>39415</v>
+        <v>39498</v>
       </c>
     </row>
     <row r="12">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>17324</v>
+        <v>16805</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3302</v>
+        <v>3156</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>23892</v>
+        <v>23587</v>
       </c>
     </row>
     <row r="15">
@@ -1183,13 +1183,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>41233</v>
+        <v>41327</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>18572</v>
+        <v>17830</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>51726</v>
+        <v>51040</v>
       </c>
     </row>
     <row r="16">
@@ -1238,13 +1238,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>27847</v>
+        <v>29121</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>17244</v>
+        <v>17030</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>51401</v>
+        <v>50752</v>
       </c>
     </row>
     <row r="19">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>58549</v>
+        <v>56527</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>35552</v>
+        <v>34452</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>83370</v>
+        <v>83580</v>
       </c>
     </row>
     <row r="20">
@@ -1310,13 +1310,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2749</v>
+        <v>2597</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>11725</v>
+        <v>11834</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>16451</v>
+        <v>16287</v>
       </c>
     </row>
     <row r="23">
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>12744</v>
+        <v>12446</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>24855</v>
+        <v>25564</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>33329</v>
+        <v>34147</v>
       </c>
     </row>
     <row r="24">
@@ -1382,13 +1382,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>83616</v>
+        <v>84800</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>64540</v>
+        <v>64605</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>158683</v>
+        <v>159483</v>
       </c>
     </row>
     <row r="27">
@@ -1399,13 +1399,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>129381</v>
+        <v>131349</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>95417</v>
+        <v>97604</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>212340</v>
+        <v>214337</v>
       </c>
     </row>
     <row r="28">
